--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T09:20:32+00:00</t>
+    <t>2023-05-29T10:57:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T10:57:35+00:00</t>
+    <t>2023-05-29T12:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T12:01:10+00:00</t>
+    <t>2023-05-29T23:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-29T23:20:38+00:00</t>
+    <t>2023-06-03T11:22:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T11:22:46+00:00</t>
+    <t>2023-06-03T11:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T11:50:31+00:00</t>
+    <t>2023-06-03T12:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T12:48:52+00:00</t>
+    <t>2023-06-03T13:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-03T13:59:36+00:00</t>
+    <t>2023-06-05T14:57:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T14:57:47+00:00</t>
+    <t>2023-06-05T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-05T15:16:04+00:00</t>
+    <t>2023-06-06T02:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T02:57:59+00:00</t>
+    <t>2023-06-06T05:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-06T05:11:19+00:00</t>
+    <t>2023-06-08T10:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:48:25+00:00</t>
+    <t>2023-06-11T03:29:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T03:29:39+00:00</t>
+    <t>2023-06-11T04:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T04:14:44+00:00</t>
+    <t>2023-06-11T04:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T04:29:08+00:00</t>
+    <t>2023-06-11T06:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T06:47:38+00:00</t>
+    <t>2023-06-11T07:42:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T07:42:04+00:00</t>
+    <t>2023-06-11T08:31:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T08:31:41+00:00</t>
+    <t>2023-06-11T09:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-11T09:44:02+00:00</t>
+    <t>2023-06-11T10:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
